--- a/WebAPI/eFMS.API.SystemWeb/eFMS.API.System/eFMS.API.System/Resources/Files/User-Import.xlsx
+++ b/WebAPI/eFMS.API.SystemWeb/eFMS.API.System/eFMS.API.System/Resources/Files/User-Import.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code_Khoa\18062021\WebAPI\eFMS.API.SystemWeb\eFMS.API.System\eFMS.API.System\Resources\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7470"/>
+    <workbookView xWindow="930" yWindow="0" windowWidth="20490" windowHeight="7470"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
   <si>
     <t>Status</t>
   </si>
@@ -105,6 +105,15 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>UserRole</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>FIN</t>
   </si>
 </sst>
 </file>
@@ -505,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,10 +528,10 @@
     <col min="5" max="5" width="21" customWidth="1"/>
     <col min="6" max="7" width="14.42578125" customWidth="1"/>
     <col min="8" max="8" width="12.5703125" style="1" customWidth="1"/>
-    <col min="9" max="12" width="14.42578125" customWidth="1"/>
+    <col min="9" max="13" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -559,8 +568,11 @@
       <c r="L1" s="4" t="s">
         <v>26</v>
       </c>
+      <c r="M1" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -597,8 +609,11 @@
       <c r="L2" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="M2" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -634,6 +649,9 @@
       </c>
       <c r="L3" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
